--- a/Small Caps/S.xlsx
+++ b/Small Caps/S.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Small Caps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889B9F84-4303-3449-B13D-79813433DA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C889E9-17E9-9345-BFB7-BA285C346885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1942,11 +1942,11 @@
     <v>Powered by Refinitiv</v>
     <v>30.76</v>
     <v>14.33</v>
-    <v>0.6512</v>
-    <v>1.59</v>
-    <v>6.1748000000000004E-2</v>
-    <v>-0.21</v>
-    <v>-7.6839999999999999E-3</v>
+    <v>0.66359999999999997</v>
+    <v>0.57999999999999996</v>
+    <v>2.1221999999999998E-2</v>
+    <v>0.01</v>
+    <v>3.5829999999999998E-4</v>
     <v>USD</v>
     <v>SentinelOne, Inc. is an artificial intelligence (AI)-powered cybersecurity provider. The Company’s Singularity Platform detects, prevents, and responds to cyberattacks at machine speed, empowering organizations to secure endpoints, cloud workloads, containers, identities, and mobile and network-connected devices. The Company’s Singularity platform ingests, correlates, and queries petabytes of structured and unstructured data from a myriad of ever-expanding disparate external and internal sources in real time. Its distributed AI models run both locally on every endpoint and every cloud workload, as well as on its cloud platform. The Company’s offering also includes PingSafe, a cloud native application protection platform (CNAPP) to bolster its cloud security product suite. By adding PingSafe’s CNAPP to its Cloud Workload Security (CWS), it provides enterprises with a comprehensive cloud security coverage that drives security, improved posture, and autonomous protection.</v>
     <v>2500</v>
@@ -1954,24 +1954,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>444 Castro Street, Suite 400, MOUNTAIN VIEW, CA, 94041 US</v>
-    <v>27.38</v>
+    <v>27.99</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45602.984777430465</v>
+    <v>45604.041647603903</v>
     <v>0</v>
-    <v>26.25</v>
-    <v>8672912362</v>
+    <v>27.385000000000002</v>
+    <v>8853730213</v>
     <v>SENTINELONE, INC.</v>
     <v>SENTINELONE, INC.</v>
-    <v>26.31</v>
-    <v>25.75</v>
-    <v>27.34</v>
-    <v>27.12</v>
+    <v>27.54</v>
+    <v>27.33</v>
+    <v>27.91</v>
+    <v>27.92</v>
     <v>317224300</v>
     <v>S</v>
     <v>SENTINELONE, INC. (XNYS:S)</v>
-    <v>4282876</v>
-    <v>3632532</v>
+    <v>3876045</v>
+    <v>3721527</v>
     <v>2013</v>
   </rv>
   <rv s="2">
@@ -2133,9 +2133,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2894,14 +2894,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>27.34</v>
+        <v>27.91</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>10.641610260122699</v>
+        <v>10.86347265398773</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2941,14 +2941,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>6.1748000000000004E-2</v>
+        <v>2.1221999999999998E-2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>346.91649447999998</v>
+        <v>354.14920852</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2989,14 +2989,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>8672912362</v>
+        <v>8853730213</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>6.4376299067231369E-3</v>
+        <v>6.3061555589326605E-3</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3038,7 +3038,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>0.6512</v>
+        <v>0.66359999999999997</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>-0.36430931880675843</v>
+        <v>-0.37729189452442768</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>

--- a/Small Caps/S.xlsx
+++ b/Small Caps/S.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Small Caps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C889E9-17E9-9345-BFB7-BA285C346885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE23F4CB-C76D-BE4F-A444-86347A1D641A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1942,11 +1942,11 @@
     <v>Powered by Refinitiv</v>
     <v>30.76</v>
     <v>14.33</v>
-    <v>0.66359999999999997</v>
-    <v>0.57999999999999996</v>
-    <v>2.1221999999999998E-2</v>
-    <v>0.01</v>
-    <v>3.5829999999999998E-4</v>
+    <v>0.65329999999999999</v>
+    <v>1.19</v>
+    <v>4.5025000000000003E-2</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>SentinelOne, Inc. is an artificial intelligence (AI)-powered cybersecurity provider. The Company’s Singularity Platform detects, prevents, and responds to cyberattacks at machine speed, empowering organizations to secure endpoints, cloud workloads, containers, identities, and mobile and network-connected devices. The Company’s Singularity platform ingests, correlates, and queries petabytes of structured and unstructured data from a myriad of ever-expanding disparate external and internal sources in real time. Its distributed AI models run both locally on every endpoint and every cloud workload, as well as on its cloud platform. The Company’s offering also includes PingSafe, a cloud native application protection platform (CNAPP) to bolster its cloud security product suite. By adding PingSafe’s CNAPP to its Cloud Workload Security (CWS), it provides enterprises with a comprehensive cloud security coverage that drives security, improved posture, and autonomous protection.</v>
     <v>2500</v>
@@ -1954,24 +1954,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>444 Castro Street, Suite 400, MOUNTAIN VIEW, CA, 94041 US</v>
-    <v>27.99</v>
+    <v>27.66</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45604.041647603903</v>
+    <v>45616.039269224217</v>
     <v>0</v>
-    <v>27.385000000000002</v>
-    <v>8853730213</v>
+    <v>26.23</v>
+    <v>8761735166</v>
     <v>SENTINELONE, INC.</v>
     <v>SENTINELONE, INC.</v>
-    <v>27.54</v>
-    <v>27.33</v>
-    <v>27.91</v>
-    <v>27.92</v>
+    <v>26.23</v>
+    <v>26.43</v>
+    <v>27.62</v>
+    <v>27.62</v>
     <v>317224300</v>
     <v>S</v>
     <v>SENTINELONE, INC. (XNYS:S)</v>
-    <v>3876045</v>
-    <v>3721527</v>
+    <v>2609842</v>
+    <v>3764786</v>
     <v>2013</v>
   </rv>
   <rv s="2">
@@ -2894,14 +2894,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>27.91</v>
+        <v>27.62</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>10.86347265398773</v>
+        <v>10.750595295705521</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2941,14 +2941,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>2.1221999999999998E-2</v>
+        <v>4.5025000000000003E-2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>354.14920852</v>
+        <v>350.46940663999999</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2989,14 +2989,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>8853730213</v>
+        <v>8761735166</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>6.3061555589326605E-3</v>
+        <v>6.3723679091169643E-3</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3038,7 +3038,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>0.66359999999999997</v>
+        <v>0.65329999999999999</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>-0.37729189452442768</v>
+        <v>-0.37075368487243943</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>
